--- a/ddl/algorithm_example.xlsx
+++ b/ddl/algorithm_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junyoung/Desktop/algo_team/BE-Repository/ddl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89523EDA-AD2D-0D4D-A977-E15AE62500A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF162E3-AE57-764A-8146-886B2B434458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="4780" windowWidth="33600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T_team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="184">
   <si>
     <t>team_id</t>
   </si>
@@ -500,94 +500,94 @@
     <t>2023-06-06</t>
   </si>
   <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '클라우드 네이티브 전환', '2023-01-15', '2023-01-25', 5, 33);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( 'AI 기반 고객 서비스 챗봇', '2023-02-03', '2023-02-11', 3, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '스마트 공장 자동화 시스템', '2023-03-10', '2023-03-24', 4, 5);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '사이버 보안 강화 프로젝트', '2023-04-05', '2023-04-12', 3, 13);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '빅 데이터 분석 플랫폼', '2023-05-01', '2023-05-14', 5, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '블록체인 기반 결제 시스템', '2023-06-10', '2023-06-18', 5, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '클라우드 기반 파일 공유 서비스', '2023-07-02', '2023-07-14', 4, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( 'IoT 스마트 홈 솔루션', '2023-08-19', '2023-08-26', 3, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '자율주행차 데이터 분석 플랫폼', '2023-09-01', '2023-09-15', 5, 7);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '다중 채널 마케팅 자동화', '2023-10-06', '2023-10-12', 1, 18);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '머신러닝을 활용한 예측 분석', '2023-11-02', '2023-11-13', 4, 31);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '개인화된 추천 시스템 구축', '2023-12-04', '2023-12-10', 1, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '디지털 트랜스포메이션 가속화', '2023-01-08', '2023-01-22', 1, 21);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '5G 네트워크 최적화 프로젝트', '2023-02-20', '2023-03-03', 3, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '차세대 인공지능 서비스 개발', '2023-03-13', '2023-03-21', 2, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '클라우드 보안 관리 시스템', '2023-04-02', '2023-04-13', 5, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '모바일 앱 성능 최적화 프로젝트', '2023-05-06', '2023-05-19', 2, 24);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '스마트 헬스케어 솔루션', '2023-06-12', '2023-06-22', 1, 9);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '게임 빅데이터 분석 시스템', '2023-07-08', '2023-07-20', 4, 14);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( 'AI 기반 이미지 분석 플랫폼', '2023-08-15', '2023-08-29', 5, 29);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '멀티 클라우드 관리 시스템', '2023-09-10', '2023-09-23', 3, 24);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '모바일 결제 시스템 개발', '2023-10-15', '2023-10-28', 5, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '디지털 자산 관리 플랫폼', '2023-11-01', '2023-11-09', 4, 23);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '머신러닝 모델 자동화 도구', '2023-12-10', '2023-12-23', 3, 16);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '전사적 자원 관리(ERP) 시스템 업그레이드', '2023-01-20', '2023-02-03', 5, 26);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '데이터 시각화 대시보드 구축', '2023-02-25', '2023-03-06', 2, 11);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( 'AI 음성 인식 기술 개발', '2023-03-22', '2023-04-02', 3, 7);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '인공지능 기반 고객 예측 시스템', '2023-04-10', '2023-04-23', 2, null);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '데이터 웨어하우스 구축 프로젝트', '2023-05-11', '2023-05-24', 3, 8);</t>
-  </si>
-  <si>
-    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, worker_id) values ( '디지털 마케팅 자동화 플랫폼', '2023-06-06', '2023-06-18', 3, 23);</t>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '클라우드 네이티브 전환', '2023-01-15', '2023-01-25', 5, 6, 33);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( 'AI 기반 고객 서비스 챗봇', '2023-02-03', '2023-02-11', 3, 7, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '스마트 공장 자동화 시스템', '2023-03-10', '2023-03-24', 4, 4, 5);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '사이버 보안 강화 프로젝트', '2023-04-05', '2023-04-12', 3, 8, 13);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '빅 데이터 분석 플랫폼', '2023-05-01', '2023-05-14', 5, 8, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '블록체인 기반 결제 시스템', '2023-06-10', '2023-06-18', 5, 3, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '클라우드 기반 파일 공유 서비스', '2023-07-02', '2023-07-14', 4, 6, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( 'IoT 스마트 홈 솔루션', '2023-08-19', '2023-08-26', 3, 4, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '자율주행차 데이터 분석 플랫폼', '2023-09-01', '2023-09-15', 5, 8, 7);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '다중 채널 마케팅 자동화', '2023-10-06', '2023-10-12', 1, 1, 18);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '머신러닝을 활용한 예측 분석', '2023-11-02', '2023-11-13', 4, 11, 31);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '개인화된 추천 시스템 구축', '2023-12-04', '2023-12-10', 1, 2, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '디지털 트랜스포메이션 가속화', '2023-01-08', '2023-01-22', 1, 11, 21);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '5G 네트워크 최적화 프로젝트', '2023-02-20', '2023-03-03', 3, 3, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '차세대 인공지능 서비스 개발', '2023-03-13', '2023-03-21', 2, 9, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '클라우드 보안 관리 시스템', '2023-04-02', '2023-04-13', 5, 1, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '모바일 앱 성능 최적화 프로젝트', '2023-05-06', '2023-05-19', 2, 4, 24);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '스마트 헬스케어 솔루션', '2023-06-12', '2023-06-22', 1, 9, 9);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '게임 빅데이터 분석 시스템', '2023-07-08', '2023-07-20', 4, 11, 14);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( 'AI 기반 이미지 분석 플랫폼', '2023-08-15', '2023-08-29', 5, 4, 29);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '멀티 클라우드 관리 시스템', '2023-09-10', '2023-09-23', 3, 11, 24);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '모바일 결제 시스템 개발', '2023-10-15', '2023-10-28', 5, 1, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '디지털 자산 관리 플랫폼', '2023-11-01', '2023-11-09', 4, 9, 23);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '머신러닝 모델 자동화 도구', '2023-12-10', '2023-12-23', 3, 7, 16);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '전사적 자원 관리(ERP) 시스템 업그레이드', '2023-01-20', '2023-02-03', 5, 6, 26);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '데이터 시각화 대시보드 구축', '2023-02-25', '2023-03-06', 2, 3, 11);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( 'AI 음성 인식 기술 개발', '2023-03-22', '2023-04-02', 3, 8, 7);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '인공지능 기반 고객 예측 시스템', '2023-04-10', '2023-04-23', 2, 2, null);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '데이터 웨어하우스 구축 프로젝트', '2023-05-11', '2023-05-24', 3, 1, 8);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_task (task_name, start_date, end_date, importance, job_id, worker_id) values ( '디지털 마케팅 자동화 플랫폼', '2023-06-06', '2023-06-18', 3, 9, 23);</t>
   </si>
 </sst>
 </file>
@@ -865,10 +865,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -876,7 +876,7 @@
     <col min="1" max="1" width="38.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" ht="14">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -890,10 +890,13 @@
         <v>66</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" ht="14">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -907,13 +910,16 @@
         <v>5</v>
       </c>
       <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -926,14 +932,17 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" ht="14">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -947,13 +956,16 @@
         <v>4</v>
       </c>
       <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" ht="14">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -967,13 +979,16 @@
         <v>3</v>
       </c>
       <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -986,14 +1001,17 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1006,14 +1024,17 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -1026,14 +1047,17 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1046,14 +1070,17 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1067,13 +1094,16 @@
         <v>5</v>
       </c>
       <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -1087,13 +1117,16 @@
         <v>1</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -1107,13 +1140,16 @@
         <v>4</v>
       </c>
       <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1126,14 +1162,17 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -1147,13 +1186,16 @@
         <v>1</v>
       </c>
       <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -1166,14 +1208,17 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -1186,14 +1231,17 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
         <v>73</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -1206,14 +1254,17 @@
       <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -1227,13 +1278,16 @@
         <v>2</v>
       </c>
       <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
         <v>24</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -1249,11 +1303,14 @@
       <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+    <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -1267,13 +1324,16 @@
         <v>4</v>
       </c>
       <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
         <v>14</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -1287,13 +1347,16 @@
         <v>5</v>
       </c>
       <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
         <v>29</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -1307,13 +1370,16 @@
         <v>3</v>
       </c>
       <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
         <v>24</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -1326,14 +1392,17 @@
       <c r="D23">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>73</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -1347,13 +1416,16 @@
         <v>4</v>
       </c>
       <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -1367,13 +1439,16 @@
         <v>3</v>
       </c>
       <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
         <v>16</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -1387,13 +1462,16 @@
         <v>5</v>
       </c>
       <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -1407,13 +1485,16 @@
         <v>2</v>
       </c>
       <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
         <v>11</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -1427,13 +1508,16 @@
         <v>3</v>
       </c>
       <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
         <v>7</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+    <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -1446,14 +1530,17 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>73</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -1467,13 +1554,16 @@
         <v>3</v>
       </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -1487,9 +1577,12 @@
         <v>3</v>
       </c>
       <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
         <v>23</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>183</v>
       </c>
     </row>

--- a/ddl/algorithm_example.xlsx
+++ b/ddl/algorithm_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\protaku\PycharmProjects\algorithm_project\ddl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC3764A-6D9A-4EAB-A7E3-DECF920C1D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79644408-3346-4A64-A887-BF8D7E5CB09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="172">
   <si>
     <t>team_id</t>
   </si>
@@ -363,13 +363,3087 @@
   <si>
     <t>level</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (1, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김태희</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 5, 5, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (2, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이준호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 1, 9, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (3, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박수빈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 8, 7, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (4, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최지훈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 5, 6, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (5, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정유진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 4, 5, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (6, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강하준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 8, 8, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (7, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조지현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 8, 4, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (8, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>윤서영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 1, 0, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (9, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장민수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 9, 6, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (10, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>임수현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 2, 10, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (11, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한지혜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 3, 6, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (12, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오지민</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 11, 0, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (13, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서윤아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 8, 0, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (14, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신유진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 11, 10, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (15, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권지수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 6, 9, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (16, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황서진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 7, 5, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (17, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안수미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 2, 1, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (18, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>송예린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 1, 6, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (19, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>류지우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 2, 3, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (20, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>임예진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 11, 1, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (21, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한유나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 11, 6, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (22, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차유진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 5, 4, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (23, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도경민</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 9, 4, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (24, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구지영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 11, 5, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (25, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>천유빈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 5, 5, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (26, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배소연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 6, 1, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (27, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>곽지아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 6, 9, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (28, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>허민수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 7, 1, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (29, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유승호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 4, 1, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (30, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문태연</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 8, 0, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (31, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전지수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 11, 6, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (32, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하준희</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 1, 4, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (33, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정은지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 6, 10, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_worker VALUES (34, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고미경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', 11, 8, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이티브</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-06', 1, 5, 6, 33);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챗봇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-13', 1, 5, 7, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-02', '2024-12-07', 3, 2, 4, 5);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-06', '2024-12-09', 3, 2, 8, 13);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-05', 3, 2, 8, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록체인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-11', 5, 2, 3, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-01', '2024-12-06', 4, 3, 6, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('IoT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>솔루션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-03', '2024-12-03', 3, 3, 4, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자율주행차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-03', '2024-12-06', 2, 5, 8, 7);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채널</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마케팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-08', 2, 4, 1, 18);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머신러닝을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-11', 3, 2, 11, 31);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인화된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-01', '2024-12-01', 4, 4, 2, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜스포메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가속화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-11', 3, 2, 11, 21);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('5G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네트워크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최적화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-03', '2024-12-04', 4, 3, 3, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차세대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-03', '2024-12-08', 3, 2, 9, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-13', 2, 4, 1, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모바일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최적화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-06', '2024-12-09', 3, 4, 4, 24);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헬스케어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>솔루션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-02', '2024-12-09', 3, 1, 9, 9);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빅데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-01', '2024-12-08', 3, 4, 11, 14);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-05', 5, 2, 4, 29);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멀티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-06', '2024-12-10', 4, 5, 11, 24);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모바일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-11', 3, 5, 1, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-09', 5, 1, 9, 23);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머신러닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-02', '2024-12-05', 1, 3, 7, 16);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전사적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve">(ERP) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업그레이드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-12', 4, 4, 6, 26);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시각화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대시보드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-11', 4, 1, 3, 11);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-02', '2024-12-06', 1, 5, 8, 7);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-12', 3, 3, 2, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웨어하우스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-01', '2024-12-06', 4, 3, 1, 8);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마케팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-01', '2024-12-03', 3, 5, 9, 23);</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -400,6 +3474,13 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1020,7 +4101,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1054,12 +4135,14 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1">
@@ -1073,12 +4156,14 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D35" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1">
@@ -1092,12 +4177,14 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1">
@@ -1116,7 +4203,9 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="1">
@@ -1130,12 +4219,14 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="1">
@@ -1149,12 +4240,14 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="1">
@@ -1168,12 +4261,14 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1">
@@ -1187,12 +4282,14 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="1">
@@ -1206,12 +4303,14 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="1">
@@ -1225,12 +4324,14 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="1">
@@ -1244,12 +4345,14 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="1">
@@ -1263,12 +4366,14 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="1">
@@ -1282,12 +4387,14 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="1">
@@ -1301,12 +4408,14 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="1">
@@ -1320,12 +4429,14 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="1">
@@ -1339,12 +4450,14 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="1">
@@ -1358,12 +4471,14 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="1">
@@ -1377,12 +4492,14 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="1">
@@ -1396,12 +4513,14 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="1">
@@ -1415,12 +4534,14 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="1">
@@ -1434,12 +4555,14 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="1">
@@ -1453,12 +4576,14 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="1">
@@ -1472,12 +4597,14 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="1">
@@ -1491,12 +4618,14 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="1">
@@ -1510,12 +4639,14 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="1">
@@ -1529,12 +4660,14 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="1">
@@ -1548,12 +4681,14 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="13">
       <c r="A29" s="1">
@@ -1567,12 +4702,14 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1">
         <v>5</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="13">
       <c r="A30" s="1">
@@ -1586,12 +4723,14 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="13">
       <c r="A31" s="1">
@@ -1610,7 +4749,9 @@
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="13">
       <c r="A32" s="1">
@@ -1624,12 +4765,14 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="13">
       <c r="A33" s="1">
@@ -1643,12 +4786,14 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="13">
       <c r="A34" s="1">
@@ -1662,12 +4807,14 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="13">
       <c r="A35" s="1">
@@ -1681,12 +4828,14 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1702,7 +4851,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1739,11 +4888,11 @@
       </c>
       <c r="B2" s="4">
         <f ca="1">RANDBETWEEN(DATE(2024,12,1), DATE(2024,12,7))</f>
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">B2+RANDBETWEEN(0,8)</f>
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">RANDBETWEEN(1,5)</f>
@@ -1751,7 +4900,7 @@
       </c>
       <c r="E2" s="3">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
@@ -1759,7 +4908,9 @@
       <c r="G2" s="1">
         <v>33</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1767,19 +4918,19 @@
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B31" ca="1" si="0">RANDBETWEEN(DATE(2024,12,1), DATE(2024,12,7))</f>
-        <v>45629</v>
+        <v>45633</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C31" ca="1" si="1">B3+RANDBETWEEN(0,8)</f>
-        <v>45634</v>
+        <v>45637</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:E31" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>7</v>
@@ -1787,7 +4938,9 @@
       <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -1799,15 +4952,15 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -1815,7 +4968,9 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1827,15 +4982,15 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45634</v>
+        <v>45629</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
@@ -1843,7 +4998,9 @@
       <c r="G5" s="1">
         <v>13</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1851,15 +5008,15 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45628</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1871,7 +5028,9 @@
       <c r="G6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1879,11 +5038,11 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45630</v>
+        <v>45636</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1891,7 +5050,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -1899,7 +5058,9 @@
       <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -1907,19 +5068,19 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45638</v>
+        <v>45631</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
@@ -1927,7 +5088,9 @@
       <c r="G8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1935,19 +5098,19 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45627</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
@@ -1955,7 +5118,9 @@
       <c r="G9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -1963,19 +5128,19 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
@@ -1983,7 +5148,9 @@
       <c r="G10" s="1">
         <v>7</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -1991,19 +5158,19 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45627</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2011,7 +5178,9 @@
       <c r="G11" s="1">
         <v>18</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -2019,19 +5188,19 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45631</v>
+        <v>45635</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
         <v>11</v>
@@ -2039,7 +5208,9 @@
       <c r="G12" s="1">
         <v>31</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -2047,15 +5218,15 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2067,7 +5238,9 @@
       <c r="G13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -2075,19 +5248,19 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
         <v>11</v>
@@ -2095,7 +5268,9 @@
       <c r="G14" s="1">
         <v>21</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -2103,19 +5278,19 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -2123,7 +5298,9 @@
       <c r="G15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -2131,11 +5308,11 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45630</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45630</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2143,7 +5320,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
         <v>9</v>
@@ -2151,7 +5328,9 @@
       <c r="G16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -2159,15 +5338,15 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2179,7 +5358,9 @@
       <c r="G17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
@@ -2187,11 +5368,11 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2199,7 +5380,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
@@ -2207,7 +5388,9 @@
       <c r="G18" s="1">
         <v>24</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
@@ -2219,15 +5402,15 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1">
         <v>9</v>
@@ -2235,7 +5418,9 @@
       <c r="G19" s="1">
         <v>9</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
@@ -2243,19 +5428,19 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
         <v>11</v>
@@ -2263,7 +5448,9 @@
       <c r="G20" s="1">
         <v>14</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
@@ -2271,19 +5458,19 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -2291,7 +5478,9 @@
       <c r="G21" s="1">
         <v>29</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -2299,19 +5488,19 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
         <v>11</v>
@@ -2319,7 +5508,9 @@
       <c r="G22" s="1">
         <v>24</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -2327,15 +5518,15 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45627</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45639</v>
+        <v>45627</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2347,7 +5538,9 @@
       <c r="G23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
@@ -2355,11 +5548,11 @@
       </c>
       <c r="B24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45627</v>
+        <v>45632</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45632</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2367,7 +5560,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1">
         <v>9</v>
@@ -2375,7 +5568,9 @@
       <c r="G24" s="1">
         <v>23</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
@@ -2383,19 +5578,19 @@
       </c>
       <c r="B25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1">
         <v>7</v>
@@ -2403,7 +5598,9 @@
       <c r="G25" s="1">
         <v>16</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
@@ -2411,11 +5608,11 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45628</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45639</v>
+        <v>45635</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2423,7 +5620,7 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1">
         <v>6</v>
@@ -2431,7 +5628,9 @@
       <c r="G26" s="1">
         <v>26</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
@@ -2439,19 +5638,19 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45634</v>
+        <v>45628</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
@@ -2459,7 +5658,9 @@
       <c r="G27" s="1">
         <v>11</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
@@ -2467,11 +5668,11 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45628</v>
+        <v>45632</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2479,7 +5680,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>8</v>
@@ -2487,7 +5688,9 @@
       <c r="G28" s="1">
         <v>7</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="16">
       <c r="A29" s="1" t="s">
@@ -2495,19 +5698,19 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45630</v>
+        <v>45628</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -2515,7 +5718,9 @@
       <c r="G29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="16">
       <c r="A30" s="1" t="s">
@@ -2523,11 +5728,11 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2535,7 +5740,7 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -2543,7 +5748,9 @@
       <c r="G30" s="1">
         <v>8</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="16">
       <c r="A31" s="1" t="s">
@@ -2555,15 +5762,15 @@
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45632</v>
+        <v>45627</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1">
         <v>9</v>
@@ -2571,7 +5778,9 @@
       <c r="G31" s="1">
         <v>23</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ddl/algorithm_example.xlsx
+++ b/ddl/algorithm_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\protaku\PycharmProjects\algorithm_project\ddl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79644408-3346-4A64-A887-BF8D7E5CB09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC9FF8-03EE-42BB-B954-EE179A4BEFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="172">
   <si>
     <t>team_id</t>
   </si>
@@ -1148,6 +1148,83 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챗봇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-13', 1, 5, 7, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
     </r>
     <r>
@@ -1158,6 +1235,160 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>빅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-05', 3, 2, 8, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록체인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-11', 5, 2, 3, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>클라우드</t>
     </r>
     <r>
@@ -1176,6 +1407,622 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-01', '2024-12-06', 4, 3, 6, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('IoT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>솔루션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-03', '2024-12-03', 3, 3, 4, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인화된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-01', '2024-12-01', 4, 4, 2, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('5G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네트워크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최적화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-03', '2024-12-04', 4, 3, 3, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차세대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-03', '2024-12-08', 3, 2, 9, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-13', 2, 4, 1, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모바일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-11', 3, 5, 1, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-12', 3, 3, 2, NULL);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>네이티브</t>
     </r>
     <r>
@@ -1202,8 +2049,615 @@
         <color rgb="FF000000"/>
         <rFont val="&quot;Google Sans Mono&quot;"/>
       </rPr>
-      <t>', '2024-12-04', '2024-12-06', 1, 5, 6, 33);</t>
-    </r>
+      <t>', '2024-12-04', '2024-12-06', 1, 5, 6, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-02', '2024-12-07', 3, 2, 4, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-06', '2024-12-09', 3, 2, 8, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자율주행차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-03', '2024-12-06', 2, 5, 8, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머신러닝을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-11', 3, 2, 11, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜스포메이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가속화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-11', 3, 2, 11, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모바일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최적화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-06', '2024-12-09', 3, 4, 4, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헬스케어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>솔루션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-02', '2024-12-09', 3, 1, 9, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빅데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-01', '2024-12-08', 3, 4, 11, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1235,52 +2689,53 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>고객</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챗봇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-05', '2024-12-13', 1, 5, 7, NULL);</t>
-    </r>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-05', 5, 2, 4, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1294,25 +2749,181 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스마트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공장</t>
+      <t>멀티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-06', '2024-12-10', 4, 5, 11, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-05', '2024-12-09', 5, 1, 9, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머신러닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
     </r>
     <r>
       <rPr>
@@ -1348,6 +2959,84 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>도구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-02', '2024-12-05', 1, 3, 7, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전사적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve">(ERP) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>시스템</t>
     </r>
     <r>
@@ -1356,8 +3045,27 @@
         <color rgb="FF000000"/>
         <rFont val="&quot;Google Sans Mono&quot;"/>
       </rPr>
-      <t>', '2024-12-02', '2024-12-07', 3, 2, 4, 5);</t>
-    </r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업그레이드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-12', 4, 4, 6, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1371,43 +3079,199 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>사이버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강화</t>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시각화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대시보드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-04', '2024-12-11', 4, 1, 3, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t>', '2024-12-02', '2024-12-06', 1, 5, 8, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웨어하우스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구축</t>
     </r>
     <r>
       <rPr>
@@ -1433,8 +3297,9 @@
         <color rgb="FF000000"/>
         <rFont val="&quot;Google Sans Mono&quot;"/>
       </rPr>
-      <t>', '2024-12-06', '2024-12-09', 3, 2, 8, 13);</t>
-    </r>
+      <t>', '2024-12-01', '2024-12-06', 4, 3, 1, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1448,43 +3313,43 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>빅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마케팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="&quot;Google Sans Mono&quot;"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
     </r>
     <r>
       <rPr>
@@ -1510,8 +3375,9 @@
         <color rgb="FF000000"/>
         <rFont val="&quot;Google Sans Mono&quot;"/>
       </rPr>
-      <t>', '2024-12-04', '2024-12-05', 3, 2, 8, NULL);</t>
-    </r>
+      <t>', '2024-12-01', '2024-12-03', 3, 5, 9, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1525,314 +3391,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>블록체인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-05', '2024-12-11', 5, 2, 3, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클라우드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공유</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-01', '2024-12-06', 4, 3, 6, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('IoT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스마트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>홈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>솔루션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-03', '2024-12-03', 3, 3, 4, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자율주행차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플랫폼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-03', '2024-12-06', 2, 5, 8, 7);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>다중</t>
     </r>
     <r>
@@ -1895,1548 +3453,9 @@
         <color rgb="FF000000"/>
         <rFont val="&quot;Google Sans Mono&quot;"/>
       </rPr>
-      <t>', '2024-12-05', '2024-12-08', 2, 4, 1, 18);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>머신러닝을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-04', '2024-12-11', 3, 2, 11, 31);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개인화된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구축</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-01', '2024-12-01', 4, 4, 2, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디지털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>트랜스포메이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가속화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-05', '2024-12-11', 3, 2, 11, 21);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('5G </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>네트워크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최적화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-03', '2024-12-04', 4, 3, 3, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차세대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인공지능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-03', '2024-12-08', 3, 2, 9, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클라우드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-05', '2024-12-13', 2, 4, 1, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모바일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>성능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최적화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-06', '2024-12-09', 3, 4, 4, 24);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스마트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>헬스케어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>솔루션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-02', '2024-12-09', 3, 1, 9, 9);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>빅데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-01', '2024-12-08', 3, 4, 11, 14);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이미지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플랫폼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-05', '2024-12-05', 5, 2, 4, 29);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>멀티</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클라우드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-06', '2024-12-10', 4, 5, 11, 24);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모바일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-05', '2024-12-11', 3, 5, 1, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디지털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플랫폼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-05', '2024-12-09', 5, 1, 9, 23);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>머신러닝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모델</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-02', '2024-12-05', 1, 3, 7, 16);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전사적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve">(ERP) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업그레이드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-04', '2024-12-12', 4, 4, 6, 26);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시각화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대시보드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구축</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-04', '2024-12-11', 4, 1, 3, 11);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기술</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-02', '2024-12-06', 1, 5, 8, 7);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인공지능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고객</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시스템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-04', '2024-12-12', 3, 3, 2, NULL);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웨어하우스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구축</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-01', '2024-12-06', 4, 3, 1, 8);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO t_task (task_name, start_date, end_date, level, importance, job_id, worker_id) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디지털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마케팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플랫폼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="&quot;Google Sans Mono&quot;"/>
-      </rPr>
-      <t>', '2024-12-01', '2024-12-03', 3, 5, 9, 23);</t>
-    </r>
+      <t>', '2024-12-05', '2024-12-08', 2, 4, 1, NULL);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4135,7 +4154,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -4156,7 +4175,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D35" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -4177,7 +4196,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -4198,7 +4217,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -4219,7 +4238,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -4240,7 +4259,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -4261,7 +4280,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -4282,7 +4301,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
@@ -4303,7 +4322,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -4324,7 +4343,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -4345,7 +4364,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -4366,7 +4385,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -4387,7 +4406,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -4408,7 +4427,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -4429,7 +4448,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -4450,7 +4469,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -4471,7 +4490,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -4513,7 +4532,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -4534,7 +4553,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -4618,7 +4637,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -4639,7 +4658,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -4660,7 +4679,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
@@ -4681,7 +4700,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -4723,7 +4742,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -4744,7 +4763,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
@@ -4786,7 +4805,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
@@ -4807,7 +4826,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -4828,7 +4847,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -4851,7 +4870,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -4888,15 +4907,15 @@
       </c>
       <c r="B2" s="4">
         <f ca="1">RANDBETWEEN(DATE(2024,12,1), DATE(2024,12,7))</f>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">B2+RANDBETWEEN(0,8)</f>
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
         <f ca="1">RANDBETWEEN(1,5)</f>
@@ -4905,11 +4924,11 @@
       <c r="F2" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="1">
-        <v>33</v>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
@@ -4922,7 +4941,7 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C31" ca="1" si="1">B3+RANDBETWEEN(0,8)</f>
-        <v>45637</v>
+        <v>45641</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:E31" ca="1" si="2">RANDBETWEEN(1,5)</f>
@@ -4930,7 +4949,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>7</v>
@@ -4939,7 +4958,7 @@
         <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
@@ -4948,28 +4967,28 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45639</v>
+        <v>45633</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="1">
-        <v>5</v>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
@@ -4982,24 +5001,24 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45629</v>
+        <v>45636</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
-        <v>13</v>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
@@ -5008,11 +5027,11 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5020,7 +5039,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
@@ -5029,7 +5048,7 @@
         <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
@@ -5038,11 +5057,11 @@
       </c>
       <c r="B7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5050,7 +5069,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -5059,7 +5078,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
@@ -5068,19 +5087,19 @@
       </c>
       <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45631</v>
+        <v>45639</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
@@ -5089,7 +5108,7 @@
         <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
@@ -5098,19 +5117,19 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
@@ -5119,7 +5138,7 @@
         <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
@@ -5128,28 +5147,28 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45627</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45627</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="1">
-        <v>7</v>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
@@ -5158,11 +5177,11 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5170,16 +5189,16 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>18</v>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
@@ -5188,28 +5207,28 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45628</v>
+        <v>45630</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45630</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
         <v>11</v>
       </c>
-      <c r="G12" s="1">
-        <v>31</v>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
@@ -5218,11 +5237,11 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5239,7 +5258,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
@@ -5248,28 +5267,28 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>11</v>
       </c>
-      <c r="G14" s="1">
-        <v>21</v>
+      <c r="G14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
@@ -5278,19 +5297,19 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45637</v>
+        <v>45631</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -5299,7 +5318,7 @@
         <v>56</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
@@ -5312,15 +5331,15 @@
       </c>
       <c r="C16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>9</v>
@@ -5329,7 +5348,7 @@
         <v>56</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1">
@@ -5338,15 +5357,15 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5359,7 +5378,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
@@ -5368,28 +5387,28 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45637</v>
+        <v>45633</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="1">
-        <v>24</v>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1">
@@ -5398,7 +5417,7 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -5406,20 +5425,20 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>9</v>
       </c>
-      <c r="G19" s="1">
-        <v>9</v>
+      <c r="G19" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
@@ -5432,7 +5451,7 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45630</v>
+        <v>45638</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5440,16 +5459,16 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
         <v>11</v>
       </c>
-      <c r="G20" s="1">
-        <v>14</v>
+      <c r="G20" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
@@ -5458,28 +5477,28 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
       </c>
-      <c r="G21" s="1">
-        <v>29</v>
+      <c r="G21" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
@@ -5488,28 +5507,28 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1">
         <v>11</v>
       </c>
-      <c r="G22" s="1">
-        <v>24</v>
+      <c r="G22" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
@@ -5522,7 +5541,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45627</v>
+        <v>45634</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5530,7 +5549,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -5539,7 +5558,7 @@
         <v>56</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
@@ -5548,11 +5567,11 @@
       </c>
       <c r="B24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45632</v>
+        <v>45640</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5560,13 +5579,13 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
         <v>9</v>
       </c>
-      <c r="G24" s="1">
-        <v>23</v>
+      <c r="G24" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>164</v>
@@ -5578,15 +5597,15 @@
       </c>
       <c r="B25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5595,8 +5614,8 @@
       <c r="F25" s="1">
         <v>7</v>
       </c>
-      <c r="G25" s="1">
-        <v>16</v>
+      <c r="G25" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>165</v>
@@ -5608,7 +5627,7 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -5616,17 +5635,17 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>6</v>
       </c>
-      <c r="G26" s="1">
-        <v>26</v>
+      <c r="G26" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>166</v>
@@ -5638,15 +5657,15 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45627</v>
+        <v>45632</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45628</v>
+        <v>45636</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5655,8 +5674,8 @@
       <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="G27" s="1">
-        <v>11</v>
+      <c r="G27" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>167</v>
@@ -5668,11 +5687,11 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45636</v>
+        <v>45634</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5680,13 +5699,13 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1">
         <v>8</v>
       </c>
-      <c r="G28" s="1">
-        <v>7</v>
+      <c r="G28" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>168</v>
@@ -5698,19 +5717,19 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45632</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -5719,7 +5738,7 @@
         <v>56</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16">
@@ -5728,28 +5747,28 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45635</v>
+        <v>45632</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="1">
-        <v>8</v>
+      <c r="G30" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16">
@@ -5758,11 +5777,11 @@
       </c>
       <c r="B31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45627</v>
+        <v>45637</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -5770,16 +5789,16 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1">
         <v>9</v>
       </c>
-      <c r="G31" s="1">
-        <v>23</v>
+      <c r="G31" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
